--- a/project/CV/CV_92.xlsx
+++ b/project/CV/CV_92.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,3238 +498,2497 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>alcona</t>
+          <t>adams</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34530</v>
+        <v>4919394</v>
       </c>
       <c r="D2" t="n">
-        <v>1554</v>
+        <v>80643</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F2" t="n">
-        <v>26001</v>
+        <v>8001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.065</v>
+        <v>0.032</v>
       </c>
       <c r="H2" t="n">
-        <v>0.046</v>
+        <v>0.027</v>
       </c>
       <c r="I2" t="n">
-        <v>0.133</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>0.18</v>
+        <v>0.185</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5760000000000001</v>
+        <v>0.6850000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>alger</t>
+          <t>alamosa</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>43863</v>
+        <v>121188</v>
       </c>
       <c r="D3" t="n">
-        <v>245</v>
+        <v>3271</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F3" t="n">
-        <v>26003</v>
+        <v>8003</v>
       </c>
       <c r="G3" t="n">
-        <v>0.025</v>
+        <v>0.052</v>
       </c>
       <c r="H3" t="n">
-        <v>0.034</v>
+        <v>0.133</v>
       </c>
       <c r="I3" t="n">
-        <v>0.118</v>
+        <v>0.094</v>
       </c>
       <c r="J3" t="n">
-        <v>0.229</v>
+        <v>0.228</v>
       </c>
       <c r="K3" t="n">
-        <v>0.595</v>
+        <v>0.493</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>allegan</t>
+          <t>arapahoe</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>622993</v>
+        <v>4880938</v>
       </c>
       <c r="D4" t="n">
-        <v>7250</v>
+        <v>120766</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F4" t="n">
-        <v>26005</v>
+        <v>8005</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05</v>
+        <v>0.013</v>
       </c>
       <c r="H4" t="n">
-        <v>0.035</v>
+        <v>0.026</v>
       </c>
       <c r="I4" t="n">
-        <v>0.133</v>
+        <v>0.065</v>
       </c>
       <c r="J4" t="n">
-        <v>0.283</v>
+        <v>0.193</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>alpena</t>
+          <t>archuleta</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>123253</v>
+        <v>46501</v>
       </c>
       <c r="D5" t="n">
-        <v>5130</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F5" t="n">
-        <v>26007</v>
+        <v>8007</v>
       </c>
       <c r="G5" t="n">
-        <v>0.025</v>
+        <v>0.041</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04</v>
+        <v>0.041</v>
       </c>
       <c r="I5" t="n">
-        <v>0.144</v>
+        <v>0.155</v>
       </c>
       <c r="J5" t="n">
-        <v>0.18</v>
+        <v>0.276</v>
       </c>
       <c r="K5" t="n">
-        <v>0.612</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>antrim</t>
+          <t>baca</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>75569</v>
+        <v>20020</v>
       </c>
       <c r="D6" t="n">
-        <v>993</v>
+        <v>100</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F6" t="n">
-        <v>26009</v>
+        <v>8009</v>
       </c>
       <c r="G6" t="n">
-        <v>0.027</v>
+        <v>0.113</v>
       </c>
       <c r="H6" t="n">
-        <v>0.042</v>
+        <v>0.053</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08800000000000001</v>
+        <v>0.194</v>
       </c>
       <c r="J6" t="n">
-        <v>0.218</v>
+        <v>0.206</v>
       </c>
       <c r="K6" t="n">
-        <v>0.625</v>
+        <v>0.435</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>arenac</t>
+          <t>bent</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>63270</v>
+        <v>79153</v>
       </c>
       <c r="D7" t="n">
-        <v>2372</v>
+        <v>988</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F7" t="n">
-        <v>26011</v>
+        <v>8011</v>
       </c>
       <c r="G7" t="n">
-        <v>0.052</v>
+        <v>0.033</v>
       </c>
       <c r="H7" t="n">
-        <v>0.136</v>
+        <v>0.036</v>
       </c>
       <c r="I7" t="n">
-        <v>0.076</v>
+        <v>0.172</v>
       </c>
       <c r="J7" t="n">
-        <v>0.252</v>
+        <v>0.191</v>
       </c>
       <c r="K7" t="n">
-        <v>0.484</v>
+        <v>0.5670000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>baraga</t>
+          <t>boulder</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>61416</v>
+        <v>1825887</v>
       </c>
       <c r="D8" t="n">
-        <v>2432</v>
+        <v>31188</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F8" t="n">
-        <v>26013</v>
+        <v>8013</v>
       </c>
       <c r="G8" t="n">
-        <v>0.012</v>
+        <v>0.008</v>
       </c>
       <c r="H8" t="n">
-        <v>0.063</v>
+        <v>0.015</v>
       </c>
       <c r="I8" t="n">
-        <v>0.109</v>
+        <v>0.032</v>
       </c>
       <c r="J8" t="n">
-        <v>0.257</v>
+        <v>0.195</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5579999999999999</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>barry</t>
+          <t>broomfield</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>310821</v>
+        <v>348647</v>
       </c>
       <c r="D9" t="n">
-        <v>3218</v>
+        <v>11861</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F9" t="n">
-        <v>26015</v>
+        <v>8014</v>
       </c>
       <c r="G9" t="n">
-        <v>0.043</v>
+        <v>0.018</v>
       </c>
       <c r="H9" t="n">
-        <v>0.121</v>
+        <v>0.005</v>
       </c>
       <c r="I9" t="n">
-        <v>0.121</v>
+        <v>0.042</v>
       </c>
       <c r="J9" t="n">
-        <v>0.211</v>
+        <v>0.201</v>
       </c>
       <c r="K9" t="n">
-        <v>0.504</v>
+        <v>0.7340000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>bay</t>
+          <t>chaffee</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>680787</v>
+        <v>136848</v>
       </c>
       <c r="D10" t="n">
-        <v>23875</v>
+        <v>5897</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F10" t="n">
-        <v>26017</v>
+        <v>8015</v>
       </c>
       <c r="G10" t="n">
-        <v>0.014</v>
+        <v>0.038</v>
       </c>
       <c r="H10" t="n">
-        <v>0.055</v>
+        <v>0.045</v>
       </c>
       <c r="I10" t="n">
-        <v>0.103</v>
+        <v>0.134</v>
       </c>
       <c r="J10" t="n">
-        <v>0.202</v>
+        <v>0.138</v>
       </c>
       <c r="K10" t="n">
-        <v>0.627</v>
+        <v>0.645</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>benzie</t>
+          <t>cheyenne</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>67479</v>
+        <v>9828</v>
       </c>
       <c r="D11" t="n">
-        <v>2021</v>
+        <v>303</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F11" t="n">
-        <v>26019</v>
+        <v>8017</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01</v>
+        <v>0.016</v>
       </c>
       <c r="H11" t="n">
-        <v>0.049</v>
+        <v>0.187</v>
       </c>
       <c r="I11" t="n">
-        <v>0.062</v>
+        <v>0.106</v>
       </c>
       <c r="J11" t="n">
-        <v>0.164</v>
+        <v>0.398</v>
       </c>
       <c r="K11" t="n">
-        <v>0.715</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>berrien</t>
+          <t>clear creek</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1113200</v>
+        <v>31766</v>
       </c>
       <c r="D12" t="n">
-        <v>28586</v>
+        <v>379</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F12" t="n">
-        <v>26021</v>
+        <v>8019</v>
       </c>
       <c r="G12" t="n">
-        <v>0.039</v>
+        <v>0.002</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03700000000000001</v>
+        <v>0.015</v>
       </c>
       <c r="I12" t="n">
-        <v>0.122</v>
+        <v>0.138</v>
       </c>
       <c r="J12" t="n">
-        <v>0.247</v>
+        <v>0.123</v>
       </c>
       <c r="K12" t="n">
-        <v>0.555</v>
+        <v>0.723</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>branch</t>
+          <t>conejos</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>595052</v>
+        <v>32236</v>
       </c>
       <c r="D13" t="n">
-        <v>12931</v>
+        <v>297</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F13" t="n">
-        <v>26023</v>
+        <v>8021</v>
       </c>
       <c r="G13" t="n">
-        <v>0.07200000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="H13" t="n">
-        <v>0.091</v>
+        <v>0.106</v>
       </c>
       <c r="I13" t="n">
-        <v>0.205</v>
+        <v>0.093</v>
       </c>
       <c r="J13" t="n">
-        <v>0.234</v>
+        <v>0.195</v>
       </c>
       <c r="K13" t="n">
-        <v>0.399</v>
+        <v>0.545</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>calhoun</t>
+          <t>costilla</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>911852</v>
+        <v>17355</v>
       </c>
       <c r="D14" t="n">
-        <v>24073</v>
+        <v>242</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F14" t="n">
-        <v>26025</v>
+        <v>8023</v>
       </c>
       <c r="G14" t="n">
-        <v>0.063</v>
+        <v>0.034</v>
       </c>
       <c r="H14" t="n">
-        <v>0.121</v>
+        <v>0.07200000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>0.078</v>
+        <v>0.076</v>
       </c>
       <c r="J14" t="n">
-        <v>0.178</v>
+        <v>0.175</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5589999999999999</v>
+        <v>0.644</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>cass</t>
+          <t>crowley</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>354030</v>
+        <v>153042</v>
       </c>
       <c r="D15" t="n">
-        <v>6335</v>
+        <v>1146</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F15" t="n">
-        <v>26027</v>
+        <v>8025</v>
       </c>
       <c r="G15" t="n">
-        <v>0.046</v>
+        <v>0.002</v>
       </c>
       <c r="H15" t="n">
-        <v>0.076</v>
+        <v>0.034</v>
       </c>
       <c r="I15" t="n">
-        <v>0.123</v>
+        <v>0.08</v>
       </c>
       <c r="J15" t="n">
-        <v>0.274</v>
+        <v>0.294</v>
       </c>
       <c r="K15" t="n">
-        <v>0.48</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>charlevoix</t>
+          <t>custer</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>99266</v>
+        <v>13870</v>
       </c>
       <c r="D16" t="n">
-        <v>1323</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F16" t="n">
-        <v>26029</v>
+        <v>8027</v>
       </c>
       <c r="G16" t="n">
-        <v>0.027</v>
+        <v>0.017</v>
       </c>
       <c r="H16" t="n">
-        <v>0.057</v>
+        <v>0.098</v>
       </c>
       <c r="I16" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.153</v>
       </c>
       <c r="J16" t="n">
-        <v>0.205</v>
+        <v>0.234</v>
       </c>
       <c r="K16" t="n">
-        <v>0.626</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>cheboygan</t>
+          <t>delta</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>76650</v>
+        <v>161509</v>
       </c>
       <c r="D17" t="n">
-        <v>3002</v>
+        <v>2867</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F17" t="n">
-        <v>26031</v>
+        <v>8029</v>
       </c>
       <c r="G17" t="n">
-        <v>0.027</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="H17" t="n">
-        <v>0.052</v>
+        <v>0.094</v>
       </c>
       <c r="I17" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.07400000000000001</v>
       </c>
       <c r="J17" t="n">
-        <v>0.252</v>
+        <v>0.295</v>
       </c>
       <c r="K17" t="n">
-        <v>0.584</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>chippewa</t>
+          <t>denver</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>274140</v>
+        <v>6331246</v>
       </c>
       <c r="D18" t="n">
-        <v>1895</v>
+        <v>138080</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F18" t="n">
-        <v>26033</v>
+        <v>8031</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="H18" t="n">
-        <v>0.022</v>
+        <v>0.018</v>
       </c>
       <c r="I18" t="n">
-        <v>0.068</v>
+        <v>0.062</v>
       </c>
       <c r="J18" t="n">
-        <v>0.287</v>
+        <v>0.194</v>
       </c>
       <c r="K18" t="n">
-        <v>0.593</v>
+        <v>0.7070000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>clare</t>
+          <t>dolores</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>124061</v>
+        <v>4249</v>
       </c>
       <c r="D19" t="n">
-        <v>4862</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F19" t="n">
-        <v>26035</v>
+        <v>8033</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="H19" t="n">
-        <v>0.026</v>
+        <v>0.039</v>
       </c>
       <c r="I19" t="n">
-        <v>0.102</v>
+        <v>0.066</v>
       </c>
       <c r="J19" t="n">
-        <v>0.308</v>
+        <v>0.252</v>
       </c>
       <c r="K19" t="n">
-        <v>0.514</v>
+        <v>0.591</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>clinton</t>
+          <t>douglas</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>445132</v>
+        <v>1782083</v>
       </c>
       <c r="D20" t="n">
-        <v>6390</v>
+        <v>26977</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F20" t="n">
-        <v>26037</v>
+        <v>8035</v>
       </c>
       <c r="G20" t="n">
-        <v>0.033</v>
+        <v>0.013</v>
       </c>
       <c r="H20" t="n">
-        <v>0.056</v>
+        <v>0.041</v>
       </c>
       <c r="I20" t="n">
-        <v>0.046</v>
+        <v>0.081</v>
       </c>
       <c r="J20" t="n">
-        <v>0.263</v>
+        <v>0.192</v>
       </c>
       <c r="K20" t="n">
-        <v>0.603</v>
+        <v>0.6729999999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>crawford</t>
+          <t>eagle</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>61371</v>
+        <v>514611</v>
       </c>
       <c r="D21" t="n">
-        <v>1484</v>
+        <v>3269</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F21" t="n">
-        <v>26039</v>
+        <v>8037</v>
       </c>
       <c r="G21" t="n">
-        <v>0.043</v>
+        <v>0.008</v>
       </c>
       <c r="H21" t="n">
-        <v>0.05</v>
+        <v>0.003</v>
       </c>
       <c r="I21" t="n">
-        <v>0.061</v>
+        <v>0.033</v>
       </c>
       <c r="J21" t="n">
-        <v>0.181</v>
+        <v>0.269</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6659999999999999</v>
+        <v>0.6870000000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>delta</t>
+          <t>el paso</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>319700</v>
+        <v>4536826</v>
       </c>
       <c r="D22" t="n">
-        <v>8189</v>
+        <v>75864</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F22" t="n">
-        <v>26041</v>
+        <v>8041</v>
       </c>
       <c r="G22" t="n">
-        <v>0.058</v>
+        <v>0.031</v>
       </c>
       <c r="H22" t="n">
-        <v>0.023</v>
+        <v>0.08900000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>0.17</v>
+        <v>0.081</v>
       </c>
       <c r="J22" t="n">
-        <v>0.217</v>
+        <v>0.196</v>
       </c>
       <c r="K22" t="n">
-        <v>0.532</v>
+        <v>0.603</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>dickinson</t>
+          <t>elbert</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>218532</v>
+        <v>105058</v>
       </c>
       <c r="D23" t="n">
-        <v>6435</v>
+        <v>1243</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F23" t="n">
-        <v>26043</v>
+        <v>8039</v>
       </c>
       <c r="G23" t="n">
-        <v>0.043</v>
+        <v>0.016</v>
       </c>
       <c r="H23" t="n">
-        <v>0.065</v>
+        <v>0.044</v>
       </c>
       <c r="I23" t="n">
-        <v>0.127</v>
+        <v>0.19</v>
       </c>
       <c r="J23" t="n">
-        <v>0.249</v>
+        <v>0.246</v>
       </c>
       <c r="K23" t="n">
-        <v>0.516</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>eaton</t>
+          <t>fremont</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>517441</v>
+        <v>412453</v>
       </c>
       <c r="D24" t="n">
-        <v>9750</v>
+        <v>1896</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F24" t="n">
-        <v>26045</v>
+        <v>8043</v>
       </c>
       <c r="G24" t="n">
-        <v>0.047</v>
+        <v>0.006</v>
       </c>
       <c r="H24" t="n">
-        <v>0.039</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="I24" t="n">
-        <v>0.147</v>
+        <v>0.062</v>
       </c>
       <c r="J24" t="n">
-        <v>0.247</v>
+        <v>0.2</v>
       </c>
       <c r="K24" t="n">
-        <v>0.52</v>
+        <v>0.6629999999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>emmet</t>
+          <t>garfield</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>143122</v>
+        <v>453887</v>
       </c>
       <c r="D25" t="n">
-        <v>3562</v>
+        <v>3006</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F25" t="n">
-        <v>26047</v>
+        <v>8045</v>
       </c>
       <c r="G25" t="n">
-        <v>0.025</v>
+        <v>0.065</v>
       </c>
       <c r="H25" t="n">
-        <v>0.062</v>
+        <v>0.04</v>
       </c>
       <c r="I25" t="n">
-        <v>0.075</v>
+        <v>0.03700000000000001</v>
       </c>
       <c r="J25" t="n">
-        <v>0.219</v>
+        <v>0.326</v>
       </c>
       <c r="K25" t="n">
-        <v>0.618</v>
+        <v>0.532</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>genesee</t>
+          <t>gilpin</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2617428</v>
+        <v>13639</v>
       </c>
       <c r="D26" t="n">
-        <v>112865</v>
+        <v>122</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F26" t="n">
-        <v>26049</v>
+        <v>8047</v>
       </c>
       <c r="G26" t="n">
-        <v>0.032</v>
+        <v>0.001</v>
       </c>
       <c r="H26" t="n">
-        <v>0.043</v>
+        <v>0.027</v>
       </c>
       <c r="I26" t="n">
-        <v>0.104</v>
+        <v>0.017</v>
       </c>
       <c r="J26" t="n">
-        <v>0.288</v>
+        <v>0.17</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5329999999999999</v>
+        <v>0.785</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>gladwin</t>
+          <t>grand</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>118076</v>
+        <v>71388</v>
       </c>
       <c r="D27" t="n">
-        <v>2781</v>
+        <v>472</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F27" t="n">
-        <v>26051</v>
+        <v>8049</v>
       </c>
       <c r="G27" t="n">
-        <v>0.025</v>
+        <v>0.006</v>
       </c>
       <c r="H27" t="n">
-        <v>0.024</v>
+        <v>0.002</v>
       </c>
       <c r="I27" t="n">
-        <v>0.109</v>
+        <v>0.05</v>
       </c>
       <c r="J27" t="n">
-        <v>0.338</v>
+        <v>0.187</v>
       </c>
       <c r="K27" t="n">
-        <v>0.503</v>
+        <v>0.754</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>gogebic</t>
+          <t>gunnison</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>114584</v>
+        <v>118149</v>
       </c>
       <c r="D28" t="n">
-        <v>3592</v>
+        <v>1931</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F28" t="n">
-        <v>26053</v>
+        <v>8051</v>
       </c>
       <c r="G28" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="H28" t="n">
         <v>0.039</v>
       </c>
-      <c r="H28" t="n">
-        <v>0.064</v>
-      </c>
       <c r="I28" t="n">
-        <v>0.139</v>
+        <v>0.043</v>
       </c>
       <c r="J28" t="n">
-        <v>0.257</v>
+        <v>0.281</v>
       </c>
       <c r="K28" t="n">
-        <v>0.501</v>
+        <v>0.581</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>grand traverse</t>
+          <t>hinsdale</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>329436</v>
+        <v>1809</v>
       </c>
       <c r="D29" t="n">
-        <v>5252</v>
+        <v>0</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F29" t="n">
-        <v>26055</v>
+        <v>8053</v>
       </c>
       <c r="G29" t="n">
-        <v>0.004</v>
+        <v>0.043</v>
       </c>
       <c r="H29" t="n">
-        <v>0.041</v>
+        <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>0.08199999999999999</v>
+        <v>0.117</v>
       </c>
       <c r="J29" t="n">
-        <v>0.2</v>
+        <v>0.271</v>
       </c>
       <c r="K29" t="n">
-        <v>0.672</v>
+        <v>0.519</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>gratiot</t>
+          <t>huerfano</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>402683</v>
+        <v>24378</v>
       </c>
       <c r="D30" t="n">
-        <v>8697</v>
+        <v>1375</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F30" t="n">
-        <v>26057</v>
+        <v>8055</v>
       </c>
       <c r="G30" t="n">
-        <v>0.057</v>
+        <v>0.028</v>
       </c>
       <c r="H30" t="n">
-        <v>0.07400000000000001</v>
+        <v>0.051</v>
       </c>
       <c r="I30" t="n">
-        <v>0.105</v>
+        <v>0.051</v>
       </c>
       <c r="J30" t="n">
-        <v>0.169</v>
+        <v>0.275</v>
       </c>
       <c r="K30" t="n">
-        <v>0.596</v>
+        <v>0.595</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>hillsdale</t>
+          <t>jackson</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>281717</v>
+        <v>4111</v>
       </c>
       <c r="D31" t="n">
-        <v>10236</v>
+        <v>0</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F31" t="n">
-        <v>26059</v>
+        <v>8057</v>
       </c>
       <c r="G31" t="n">
-        <v>0.135</v>
+        <v>0.021</v>
       </c>
       <c r="H31" t="n">
-        <v>0.075</v>
+        <v>0.027</v>
       </c>
       <c r="I31" t="n">
-        <v>0.119</v>
+        <v>0.09</v>
       </c>
       <c r="J31" t="n">
-        <v>0.247</v>
+        <v>0.342</v>
       </c>
       <c r="K31" t="n">
-        <v>0.424</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>houghton</t>
+          <t>jefferson</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>232535</v>
+        <v>3456154</v>
       </c>
       <c r="D32" t="n">
-        <v>2797</v>
+        <v>98176</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F32" t="n">
-        <v>26061</v>
+        <v>8059</v>
       </c>
       <c r="G32" t="n">
-        <v>0.008</v>
+        <v>0.028</v>
       </c>
       <c r="H32" t="n">
-        <v>0.078</v>
+        <v>0.031</v>
       </c>
       <c r="I32" t="n">
-        <v>0.129</v>
+        <v>0.075</v>
       </c>
       <c r="J32" t="n">
-        <v>0.281</v>
+        <v>0.194</v>
       </c>
       <c r="K32" t="n">
-        <v>0.505</v>
+        <v>0.6729999999999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>huron</t>
+          <t>kiowa</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>160579</v>
+        <v>5801</v>
       </c>
       <c r="D33" t="n">
-        <v>4051</v>
+        <v>136</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F33" t="n">
-        <v>26063</v>
+        <v>8061</v>
       </c>
       <c r="G33" t="n">
-        <v>0.08</v>
+        <v>0.028</v>
       </c>
       <c r="H33" t="n">
-        <v>0.07200000000000001</v>
+        <v>0.051</v>
       </c>
       <c r="I33" t="n">
-        <v>0.032</v>
+        <v>0.159</v>
       </c>
       <c r="J33" t="n">
-        <v>0.271</v>
+        <v>0.27</v>
       </c>
       <c r="K33" t="n">
-        <v>0.544</v>
+        <v>0.4920000000000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ingham</t>
+          <t>kit carson</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1526488</v>
+        <v>50305</v>
       </c>
       <c r="D34" t="n">
-        <v>24238</v>
+        <v>1372</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F34" t="n">
-        <v>26065</v>
+        <v>8063</v>
       </c>
       <c r="G34" t="n">
-        <v>0.062</v>
+        <v>0.024</v>
       </c>
       <c r="H34" t="n">
-        <v>0.03</v>
+        <v>0.323</v>
       </c>
       <c r="I34" t="n">
-        <v>0.076</v>
+        <v>0.119</v>
       </c>
       <c r="J34" t="n">
-        <v>0.237</v>
+        <v>0.344</v>
       </c>
       <c r="K34" t="n">
-        <v>0.595</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ionia</t>
+          <t>la plata</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>516649</v>
+        <v>227402</v>
       </c>
       <c r="D35" t="n">
-        <v>5233</v>
+        <v>2241</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F35" t="n">
-        <v>26067</v>
+        <v>8067</v>
       </c>
       <c r="G35" t="n">
-        <v>0.035</v>
+        <v>0.043</v>
       </c>
       <c r="H35" t="n">
-        <v>0.203</v>
+        <v>0.02</v>
       </c>
       <c r="I35" t="n">
-        <v>0.139</v>
+        <v>0.122</v>
       </c>
       <c r="J35" t="n">
-        <v>0.229</v>
+        <v>0.274</v>
       </c>
       <c r="K35" t="n">
-        <v>0.394</v>
+        <v>0.541</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>iosco</t>
+          <t>lake</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>125404</v>
+        <v>51826</v>
       </c>
       <c r="D36" t="n">
-        <v>6418</v>
+        <v>0</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F36" t="n">
-        <v>26069</v>
+        <v>8065</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1</v>
+        <v>0.002</v>
       </c>
       <c r="H36" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.016</v>
       </c>
       <c r="I36" t="n">
-        <v>0.099</v>
+        <v>0.036</v>
       </c>
       <c r="J36" t="n">
-        <v>0.206</v>
+        <v>0.193</v>
       </c>
       <c r="K36" t="n">
-        <v>0.511</v>
+        <v>0.753</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>iron</t>
+          <t>larimer</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>94787</v>
+        <v>1664451</v>
       </c>
       <c r="D37" t="n">
-        <v>4414</v>
+        <v>20082</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F37" t="n">
-        <v>26071</v>
+        <v>8069</v>
       </c>
       <c r="G37" t="n">
-        <v>0.046</v>
+        <v>0.013</v>
       </c>
       <c r="H37" t="n">
-        <v>0.068</v>
+        <v>0.03700000000000001</v>
       </c>
       <c r="I37" t="n">
-        <v>0.126</v>
+        <v>0.06</v>
       </c>
       <c r="J37" t="n">
-        <v>0.227</v>
+        <v>0.231</v>
       </c>
       <c r="K37" t="n">
-        <v>0.5329999999999999</v>
+        <v>0.659</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>isabella</t>
+          <t>las animas</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>376239</v>
+        <v>56244</v>
       </c>
       <c r="D38" t="n">
-        <v>6132</v>
+        <v>517</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F38" t="n">
-        <v>26073</v>
+        <v>8071</v>
       </c>
       <c r="G38" t="n">
-        <v>0.096</v>
+        <v>0.052</v>
       </c>
       <c r="H38" t="n">
-        <v>0.057</v>
+        <v>0.03</v>
       </c>
       <c r="I38" t="n">
-        <v>0.112</v>
+        <v>0.101</v>
       </c>
       <c r="J38" t="n">
-        <v>0.191</v>
+        <v>0.17</v>
       </c>
       <c r="K38" t="n">
-        <v>0.544</v>
+        <v>0.648</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>jackson</t>
+          <t>lincoln</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1425414</v>
+        <v>61912</v>
       </c>
       <c r="D39" t="n">
-        <v>28470</v>
+        <v>176</v>
       </c>
       <c r="E39" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F39" t="n">
-        <v>26075</v>
+        <v>8073</v>
       </c>
       <c r="G39" t="n">
-        <v>0.11</v>
+        <v>0.013</v>
       </c>
       <c r="H39" t="n">
-        <v>0.08</v>
+        <v>0.068</v>
       </c>
       <c r="I39" t="n">
-        <v>0.133</v>
+        <v>0.196</v>
       </c>
       <c r="J39" t="n">
-        <v>0.166</v>
+        <v>0.403</v>
       </c>
       <c r="K39" t="n">
-        <v>0.511</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>kalamazoo</t>
+          <t>logan</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1503834</v>
+        <v>425237</v>
       </c>
       <c r="D40" t="n">
-        <v>37229</v>
+        <v>5571</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F40" t="n">
-        <v>26077</v>
+        <v>8075</v>
       </c>
       <c r="G40" t="n">
-        <v>0.02</v>
+        <v>0.078</v>
       </c>
       <c r="H40" t="n">
-        <v>0.059</v>
+        <v>0.202</v>
       </c>
       <c r="I40" t="n">
-        <v>0.062</v>
+        <v>0.101</v>
       </c>
       <c r="J40" t="n">
-        <v>0.167</v>
+        <v>0.368</v>
       </c>
       <c r="K40" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.251</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>kalkaska</t>
+          <t>mesa</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>55217</v>
+        <v>900858</v>
       </c>
       <c r="D41" t="n">
-        <v>1655</v>
+        <v>11845</v>
       </c>
       <c r="E41" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F41" t="n">
-        <v>26079</v>
+        <v>8077</v>
       </c>
       <c r="G41" t="n">
-        <v>0.018</v>
+        <v>0.075</v>
       </c>
       <c r="H41" t="n">
-        <v>0.03700000000000001</v>
+        <v>0.105</v>
       </c>
       <c r="I41" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.098</v>
       </c>
       <c r="J41" t="n">
-        <v>0.228</v>
+        <v>0.222</v>
       </c>
       <c r="K41" t="n">
-        <v>0.6459999999999999</v>
+        <v>0.499</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>kent</t>
+          <t>mineral</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5343806</v>
+        <v>6754</v>
       </c>
       <c r="D42" t="n">
-        <v>74942</v>
+        <v>66</v>
       </c>
       <c r="E42" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F42" t="n">
-        <v>26081</v>
+        <v>8079</v>
       </c>
       <c r="G42" t="n">
-        <v>0.019</v>
+        <v>0.049</v>
       </c>
       <c r="H42" t="n">
-        <v>0.061</v>
+        <v>0.07200000000000001</v>
       </c>
       <c r="I42" t="n">
-        <v>0.063</v>
+        <v>0.138</v>
       </c>
       <c r="J42" t="n">
-        <v>0.215</v>
+        <v>0.264</v>
       </c>
       <c r="K42" t="n">
-        <v>0.6409999999999999</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>keweenaw</t>
+          <t>moffat</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>9633</v>
+        <v>49339</v>
       </c>
       <c r="D43" t="n">
-        <v>177</v>
+        <v>1589</v>
       </c>
       <c r="E43" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F43" t="n">
-        <v>26083</v>
+        <v>8081</v>
       </c>
       <c r="G43" t="n">
-        <v>0.006</v>
+        <v>0.041</v>
       </c>
       <c r="H43" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.142</v>
       </c>
       <c r="I43" t="n">
-        <v>0.129</v>
+        <v>0.162</v>
       </c>
       <c r="J43" t="n">
-        <v>0.277</v>
+        <v>0.284</v>
       </c>
       <c r="K43" t="n">
-        <v>0.518</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>lake</t>
+          <t>montezuma</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>30567</v>
+        <v>128763</v>
       </c>
       <c r="D44" t="n">
-        <v>728</v>
+        <v>2166</v>
       </c>
       <c r="E44" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F44" t="n">
-        <v>26085</v>
+        <v>8083</v>
       </c>
       <c r="G44" t="n">
-        <v>0.052</v>
+        <v>0.057</v>
       </c>
       <c r="H44" t="n">
-        <v>0.122</v>
+        <v>0.019</v>
       </c>
       <c r="I44" t="n">
-        <v>0.073</v>
+        <v>0.081</v>
       </c>
       <c r="J44" t="n">
-        <v>0.204</v>
+        <v>0.257</v>
       </c>
       <c r="K44" t="n">
-        <v>0.5479999999999999</v>
+        <v>0.586</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>lapeer</t>
+          <t>montrose</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>522225</v>
+        <v>244078</v>
       </c>
       <c r="D45" t="n">
-        <v>16897</v>
+        <v>5405</v>
       </c>
       <c r="E45" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F45" t="n">
-        <v>26087</v>
+        <v>8085</v>
       </c>
       <c r="G45" t="n">
-        <v>0.036</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="H45" t="n">
-        <v>0.105</v>
+        <v>0.092</v>
       </c>
       <c r="I45" t="n">
-        <v>0.104</v>
+        <v>0.07400000000000001</v>
       </c>
       <c r="J45" t="n">
-        <v>0.133</v>
+        <v>0.314</v>
       </c>
       <c r="K45" t="n">
-        <v>0.622</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>leelanau</t>
+          <t>morgan</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>69020</v>
+        <v>326020</v>
       </c>
       <c r="D46" t="n">
-        <v>732</v>
+        <v>15496</v>
       </c>
       <c r="E46" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F46" t="n">
-        <v>26089</v>
+        <v>8087</v>
       </c>
       <c r="G46" t="n">
-        <v>0.003</v>
+        <v>0.083</v>
       </c>
       <c r="H46" t="n">
-        <v>0.038</v>
+        <v>0.161</v>
       </c>
       <c r="I46" t="n">
-        <v>0.092</v>
+        <v>0.116</v>
       </c>
       <c r="J46" t="n">
-        <v>0.203</v>
+        <v>0.245</v>
       </c>
       <c r="K46" t="n">
-        <v>0.6629999999999999</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>lenawee</t>
+          <t>otero</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>719687</v>
+        <v>136835</v>
       </c>
       <c r="D47" t="n">
-        <v>8998</v>
+        <v>3998</v>
       </c>
       <c r="E47" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F47" t="n">
-        <v>26091</v>
+        <v>8089</v>
       </c>
       <c r="G47" t="n">
-        <v>0.018</v>
+        <v>0.004</v>
       </c>
       <c r="H47" t="n">
-        <v>0.027</v>
+        <v>0.047</v>
       </c>
       <c r="I47" t="n">
-        <v>0.083</v>
+        <v>0.102</v>
       </c>
       <c r="J47" t="n">
-        <v>0.26</v>
+        <v>0.194</v>
       </c>
       <c r="K47" t="n">
-        <v>0.612</v>
+        <v>0.653</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>livingston</t>
+          <t>ouray</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>914582</v>
+        <v>18147</v>
       </c>
       <c r="D48" t="n">
-        <v>13198</v>
+        <v>489</v>
       </c>
       <c r="E48" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F48" t="n">
-        <v>26093</v>
+        <v>8091</v>
       </c>
       <c r="G48" t="n">
-        <v>0.042</v>
+        <v>0.06</v>
       </c>
       <c r="H48" t="n">
-        <v>0.021</v>
+        <v>0.08</v>
       </c>
       <c r="I48" t="n">
-        <v>0.052</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="J48" t="n">
-        <v>0.198</v>
+        <v>0.295</v>
       </c>
       <c r="K48" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>luce</t>
+          <t>park</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>106323</v>
+        <v>42534</v>
       </c>
       <c r="D49" t="n">
-        <v>53</v>
+        <v>517</v>
       </c>
       <c r="E49" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F49" t="n">
-        <v>26095</v>
+        <v>8093</v>
       </c>
       <c r="G49" t="n">
-        <v>0.028</v>
+        <v>0.021</v>
       </c>
       <c r="H49" t="n">
-        <v>0.03</v>
+        <v>0.018</v>
       </c>
       <c r="I49" t="n">
-        <v>0.08800000000000001</v>
+        <v>0.103</v>
       </c>
       <c r="J49" t="n">
-        <v>0.237</v>
+        <v>0.137</v>
       </c>
       <c r="K49" t="n">
-        <v>0.617</v>
+        <v>0.722</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>mackinac</t>
+          <t>phillips</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>42299</v>
+        <v>28183</v>
       </c>
       <c r="D50" t="n">
-        <v>171</v>
+        <v>593</v>
       </c>
       <c r="E50" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F50" t="n">
-        <v>26097</v>
+        <v>8095</v>
       </c>
       <c r="G50" t="n">
-        <v>0.032</v>
+        <v>0.05</v>
       </c>
       <c r="H50" t="n">
-        <v>0.04</v>
+        <v>0.19</v>
       </c>
       <c r="I50" t="n">
-        <v>0.073</v>
+        <v>0.137</v>
       </c>
       <c r="J50" t="n">
-        <v>0.256</v>
+        <v>0.255</v>
       </c>
       <c r="K50" t="n">
-        <v>0.599</v>
+        <v>0.368</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>macomb</t>
+          <t>pitkin</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6708349</v>
+        <v>135494</v>
       </c>
       <c r="D51" t="n">
-        <v>338516</v>
+        <v>745</v>
       </c>
       <c r="E51" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F51" t="n">
-        <v>26099</v>
+        <v>8097</v>
       </c>
       <c r="G51" t="n">
-        <v>0.034</v>
+        <v>0.019</v>
       </c>
       <c r="H51" t="n">
-        <v>0.043</v>
+        <v>0.014</v>
       </c>
       <c r="I51" t="n">
-        <v>0.09</v>
+        <v>0.016</v>
       </c>
       <c r="J51" t="n">
-        <v>0.145</v>
+        <v>0.318</v>
       </c>
       <c r="K51" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>manistee</t>
+          <t>prowers</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>76046</v>
+        <v>96068</v>
       </c>
       <c r="D52" t="n">
-        <v>1523</v>
+        <v>1754</v>
       </c>
       <c r="E52" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F52" t="n">
-        <v>26101</v>
+        <v>8099</v>
       </c>
       <c r="G52" t="n">
-        <v>0.035</v>
+        <v>0.079</v>
       </c>
       <c r="H52" t="n">
-        <v>0.05</v>
+        <v>0.046</v>
       </c>
       <c r="I52" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.205</v>
       </c>
       <c r="J52" t="n">
-        <v>0.121</v>
+        <v>0.201</v>
       </c>
       <c r="K52" t="n">
-        <v>0.7070000000000001</v>
+        <v>0.469</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>marquette</t>
+          <t>pueblo</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>462072</v>
+        <v>1251596</v>
       </c>
       <c r="D53" t="n">
-        <v>6527</v>
+        <v>29806</v>
       </c>
       <c r="E53" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F53" t="n">
-        <v>26103</v>
+        <v>8101</v>
       </c>
       <c r="G53" t="n">
-        <v>0.016</v>
+        <v>0.018</v>
       </c>
       <c r="H53" t="n">
-        <v>0.045</v>
+        <v>0.044</v>
       </c>
       <c r="I53" t="n">
-        <v>0.11</v>
+        <v>0.07400000000000001</v>
       </c>
       <c r="J53" t="n">
-        <v>0.251</v>
+        <v>0.28</v>
       </c>
       <c r="K53" t="n">
-        <v>0.578</v>
+        <v>0.584</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>mason</t>
+          <t>rio blanco</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>104980</v>
+        <v>26740</v>
       </c>
       <c r="D54" t="n">
-        <v>1720</v>
+        <v>201</v>
       </c>
       <c r="E54" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F54" t="n">
-        <v>26105</v>
+        <v>8103</v>
       </c>
       <c r="G54" t="n">
-        <v>0.046</v>
+        <v>0.111</v>
       </c>
       <c r="H54" t="n">
-        <v>0.05400000000000001</v>
+        <v>0.092</v>
       </c>
       <c r="I54" t="n">
-        <v>0.199</v>
+        <v>0.07400000000000001</v>
       </c>
       <c r="J54" t="n">
-        <v>0.14</v>
+        <v>0.265</v>
       </c>
       <c r="K54" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>mecosta</t>
+          <t>rio grande</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>174439</v>
+        <v>52901</v>
       </c>
       <c r="D55" t="n">
-        <v>1716</v>
+        <v>943</v>
       </c>
       <c r="E55" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F55" t="n">
-        <v>26107</v>
+        <v>8105</v>
       </c>
       <c r="G55" t="n">
-        <v>0.091</v>
+        <v>0.061</v>
       </c>
       <c r="H55" t="n">
-        <v>0.104</v>
+        <v>0.144</v>
       </c>
       <c r="I55" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="J55" t="n">
-        <v>0.243</v>
+        <v>0.242</v>
       </c>
       <c r="K55" t="n">
-        <v>0.475</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>menominee</t>
+          <t>routt</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>192118</v>
+        <v>123037</v>
       </c>
       <c r="D56" t="n">
-        <v>2579</v>
+        <v>2934</v>
       </c>
       <c r="E56" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F56" t="n">
-        <v>26109</v>
+        <v>8107</v>
       </c>
       <c r="G56" t="n">
-        <v>0.059</v>
+        <v>0.008</v>
       </c>
       <c r="H56" t="n">
-        <v>0.073</v>
+        <v>0.036</v>
       </c>
       <c r="I56" t="n">
-        <v>0.068</v>
+        <v>0.092</v>
       </c>
       <c r="J56" t="n">
-        <v>0.253</v>
+        <v>0.375</v>
       </c>
       <c r="K56" t="n">
-        <v>0.547</v>
+        <v>0.489</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>midland</t>
+          <t>saguache</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>437968</v>
+        <v>42462</v>
       </c>
       <c r="D57" t="n">
-        <v>5888</v>
+        <v>657</v>
       </c>
       <c r="E57" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F57" t="n">
-        <v>26111</v>
+        <v>8109</v>
       </c>
       <c r="G57" t="n">
-        <v>0.031</v>
+        <v>0.065</v>
       </c>
       <c r="H57" t="n">
-        <v>0.03</v>
+        <v>0.122</v>
       </c>
       <c r="I57" t="n">
-        <v>0.098</v>
+        <v>0.138</v>
       </c>
       <c r="J57" t="n">
-        <v>0.214</v>
+        <v>0.232</v>
       </c>
       <c r="K57" t="n">
-        <v>0.626</v>
+        <v>0.443</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>missaukee</t>
+          <t>san juan</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>52966</v>
+        <v>3415</v>
       </c>
       <c r="D58" t="n">
-        <v>1106</v>
+        <v>0</v>
       </c>
       <c r="E58" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F58" t="n">
-        <v>26113</v>
+        <v>8111</v>
       </c>
       <c r="G58" t="n">
-        <v>0.025</v>
+        <v>0.032</v>
       </c>
       <c r="H58" t="n">
-        <v>0.036</v>
+        <v>0.038</v>
       </c>
       <c r="I58" t="n">
-        <v>0.08199999999999999</v>
+        <v>0.097</v>
       </c>
       <c r="J58" t="n">
-        <v>0.191</v>
+        <v>0.27</v>
       </c>
       <c r="K58" t="n">
-        <v>0.6659999999999999</v>
+        <v>0.5629999999999999</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>monroe</t>
+          <t>san miguel</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>887625</v>
+        <v>50896</v>
       </c>
       <c r="D59" t="n">
-        <v>17485</v>
+        <v>0</v>
       </c>
       <c r="E59" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F59" t="n">
-        <v>26115</v>
+        <v>8113</v>
       </c>
       <c r="G59" t="n">
-        <v>0.066</v>
+        <v>0.043</v>
       </c>
       <c r="H59" t="n">
-        <v>0.035</v>
+        <v>0.058</v>
       </c>
       <c r="I59" t="n">
-        <v>0.05400000000000001</v>
+        <v>0.07400000000000001</v>
       </c>
       <c r="J59" t="n">
-        <v>0.183</v>
+        <v>0.26</v>
       </c>
       <c r="K59" t="n">
-        <v>0.6629999999999999</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>montcalm</t>
+          <t>sedgwick</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>374830</v>
+        <v>15231</v>
       </c>
       <c r="D60" t="n">
-        <v>6172</v>
+        <v>277</v>
       </c>
       <c r="E60" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F60" t="n">
-        <v>26117</v>
+        <v>8115</v>
       </c>
       <c r="G60" t="n">
-        <v>0.028</v>
+        <v>0.065</v>
       </c>
       <c r="H60" t="n">
-        <v>0.137</v>
+        <v>0.162</v>
       </c>
       <c r="I60" t="n">
-        <v>0.167</v>
+        <v>0.138</v>
       </c>
       <c r="J60" t="n">
-        <v>0.21</v>
+        <v>0.267</v>
       </c>
       <c r="K60" t="n">
-        <v>0.458</v>
+        <v>0.368</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>montmorency</t>
+          <t>summit</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>27098</v>
+        <v>265117</v>
       </c>
       <c r="D61" t="n">
-        <v>832</v>
+        <v>1138</v>
       </c>
       <c r="E61" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F61" t="n">
-        <v>26119</v>
+        <v>8117</v>
       </c>
       <c r="G61" t="n">
-        <v>0.044</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.001</v>
       </c>
       <c r="I61" t="n">
-        <v>0.126</v>
+        <v>0.064</v>
       </c>
       <c r="J61" t="n">
-        <v>0.1860000000000001</v>
+        <v>0.151</v>
       </c>
       <c r="K61" t="n">
-        <v>0.574</v>
+        <v>0.784</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>muskegon</t>
+          <t>teller</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1295130</v>
+        <v>108025</v>
       </c>
       <c r="D62" t="n">
-        <v>34274</v>
+        <v>1416</v>
       </c>
       <c r="E62" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F62" t="n">
-        <v>26121</v>
+        <v>8119</v>
       </c>
       <c r="G62" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.105</v>
       </c>
       <c r="H62" t="n">
-        <v>0.045</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="I62" t="n">
-        <v>0.1</v>
+        <v>0.066</v>
       </c>
       <c r="J62" t="n">
-        <v>0.16</v>
+        <v>0.145</v>
       </c>
       <c r="K62" t="n">
-        <v>0.611</v>
+        <v>0.597</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>newaygo</t>
+          <t>washington</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>253006</v>
+        <v>39065</v>
       </c>
       <c r="D63" t="n">
-        <v>2984</v>
+        <v>877</v>
       </c>
       <c r="E63" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F63" t="n">
-        <v>26123</v>
+        <v>8121</v>
       </c>
       <c r="G63" t="n">
-        <v>0.099</v>
+        <v>0.077</v>
       </c>
       <c r="H63" t="n">
-        <v>0.121</v>
+        <v>0.208</v>
       </c>
       <c r="I63" t="n">
-        <v>0.027</v>
+        <v>0.101</v>
       </c>
       <c r="J63" t="n">
-        <v>0.3</v>
+        <v>0.303</v>
       </c>
       <c r="K63" t="n">
-        <v>0.454</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>oakland</t>
+          <t>weld</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>8692879</v>
+        <v>2526283</v>
       </c>
       <c r="D64" t="n">
-        <v>378483</v>
+        <v>53251</v>
       </c>
       <c r="E64" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F64" t="n">
-        <v>26125</v>
+        <v>8123</v>
       </c>
       <c r="G64" t="n">
-        <v>0.028</v>
+        <v>0.046</v>
       </c>
       <c r="H64" t="n">
-        <v>0.027</v>
+        <v>0.038</v>
       </c>
       <c r="I64" t="n">
-        <v>0.049</v>
+        <v>0.135</v>
       </c>
       <c r="J64" t="n">
-        <v>0.169</v>
+        <v>0.231</v>
       </c>
       <c r="K64" t="n">
-        <v>0.727</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>oceana</t>
+          <t>yuma</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>colorado</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>216508</v>
+        <v>62890</v>
       </c>
       <c r="D65" t="n">
-        <v>4155</v>
+        <v>880</v>
       </c>
       <c r="E65" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F65" t="n">
-        <v>26127</v>
+        <v>8125</v>
       </c>
       <c r="G65" t="n">
-        <v>0.07400000000000001</v>
+        <v>0.038</v>
       </c>
       <c r="H65" t="n">
-        <v>0.033</v>
+        <v>0.284</v>
       </c>
       <c r="I65" t="n">
-        <v>0.114</v>
+        <v>0.133</v>
       </c>
       <c r="J65" t="n">
-        <v>0.163</v>
+        <v>0.255</v>
       </c>
       <c r="K65" t="n">
-        <v>0.616</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>ogemaw</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>michigan</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>87060</v>
-      </c>
-      <c r="D66" t="n">
-        <v>2796</v>
-      </c>
-      <c r="E66" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F66" t="n">
-        <v>26129</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0.061</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0.117</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0.106</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.259</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.458</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>ontonagon</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>michigan</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>35035</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1414</v>
-      </c>
-      <c r="E67" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F67" t="n">
-        <v>26131</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0.08599999999999999</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0.123</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.265</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.501</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>osceola</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>michigan</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>85847</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1390</v>
-      </c>
-      <c r="E68" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F68" t="n">
-        <v>26133</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.073</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0.08900000000000001</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.238</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.531</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>oscoda</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>michigan</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>30963</v>
-      </c>
-      <c r="D69" t="n">
-        <v>1417</v>
-      </c>
-      <c r="E69" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F69" t="n">
-        <v>26135</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0.073</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0.096</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.181</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.593</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>otsego</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>michigan</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>132900</v>
-      </c>
-      <c r="D70" t="n">
-        <v>4169</v>
-      </c>
-      <c r="E70" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F70" t="n">
-        <v>26137</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0.068</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0.097</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.172</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0.602</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>ottawa</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>michigan</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>2077565</v>
-      </c>
-      <c r="D71" t="n">
-        <v>33636</v>
-      </c>
-      <c r="E71" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F71" t="n">
-        <v>26139</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.251</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.531</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>presque isle</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>michigan</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>47854</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1220</v>
-      </c>
-      <c r="E72" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F72" t="n">
-        <v>26141</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.223</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.575</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>roscommon</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>michigan</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>95259</v>
-      </c>
-      <c r="D73" t="n">
-        <v>2558</v>
-      </c>
-      <c r="E73" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F73" t="n">
-        <v>26143</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0.03700000000000001</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0.097</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.217</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.637</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>saginaw</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>michigan</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>1529733</v>
-      </c>
-      <c r="D74" t="n">
-        <v>58774</v>
-      </c>
-      <c r="E74" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F74" t="n">
-        <v>26145</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0.031</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0.073</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0.08199999999999999</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.197</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.616</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>sanilac</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>michigan</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>147303</v>
-      </c>
-      <c r="D75" t="n">
-        <v>5834</v>
-      </c>
-      <c r="E75" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F75" t="n">
-        <v>26151</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0.078</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0.112</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0.077</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.522</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>schoolcraft</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>michigan</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>24582</v>
-      </c>
-      <c r="D76" t="n">
-        <v>356</v>
-      </c>
-      <c r="E76" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F76" t="n">
-        <v>26153</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0.041</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.187</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.611</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>shiawassee</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>michigan</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>338405</v>
-      </c>
-      <c r="D77" t="n">
-        <v>10773</v>
-      </c>
-      <c r="E77" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F77" t="n">
-        <v>26155</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0.116</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0.046</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.297</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.475</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>st. clair</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>michigan</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>772485</v>
-      </c>
-      <c r="D78" t="n">
-        <v>24653</v>
-      </c>
-      <c r="E78" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F78" t="n">
-        <v>26147</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0.051</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0.046</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.194</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>st. joseph</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>michigan</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>434554</v>
-      </c>
-      <c r="D79" t="n">
-        <v>6571</v>
-      </c>
-      <c r="E79" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F79" t="n">
-        <v>26149</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0.079</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0.197</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.189</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.488</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>tuscola</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>michigan</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>298662</v>
-      </c>
-      <c r="D80" t="n">
-        <v>13923</v>
-      </c>
-      <c r="E80" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F80" t="n">
-        <v>26157</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0.091</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0.078</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.246</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.536</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>van buren</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>michigan</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>455033</v>
-      </c>
-      <c r="D81" t="n">
-        <v>8845</v>
-      </c>
-      <c r="E81" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F81" t="n">
-        <v>26159</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0.068</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.183</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.5870000000000001</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>washtenaw</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>michigan</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>1929249</v>
-      </c>
-      <c r="D82" t="n">
-        <v>41417</v>
-      </c>
-      <c r="E82" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F82" t="n">
-        <v>26161</v>
-      </c>
-      <c r="G82" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0.022</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0.046</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.733</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>wayne</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>michigan</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>13470121</v>
-      </c>
-      <c r="D83" t="n">
-        <v>900056</v>
-      </c>
-      <c r="E83" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F83" t="n">
-        <v>26163</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0.046</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.156</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>wexford</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>michigan</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>105243</v>
-      </c>
-      <c r="D84" t="n">
-        <v>2316</v>
-      </c>
-      <c r="E84" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F84" t="n">
-        <v>26165</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0.077</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.171</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.659</v>
+        <v>0.29</v>
       </c>
     </row>
   </sheetData>
